--- a/RejectCodes_1.xlsx
+++ b/RejectCodes_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\eclipse-workspace\procella-te-automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r1vst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A769F5-9FE7-41CD-B985-6D977CE3EF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC383F6-4361-42B1-AB18-8C5B4A1335D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,6 +636,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
